--- a/fontes_db/Tabela_Partes_Relacionadas.xlsx
+++ b/fontes_db/Tabela_Partes_Relacionadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bae14409b2dbeb7/Doutorado/Tese/Partes Relacionadas/Database/Base Final/SQL/Resultado/Resultado Detalhado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B6FEF21-1DCD-4EEA-ADF7-A206C6FF4305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{D1E7327D-5786-47F9-A7FF-74774C51705A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A92CFC23-FBA4-4D21-8357-43ECA6E3522A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credores_doadores_pf" sheetId="4" r:id="rId1"/>
@@ -23,21 +23,21 @@
     <sheet name="credores_secretarios" sheetId="10" r:id="rId8"/>
     <sheet name="credores_servidores_pref" sheetId="11" r:id="rId9"/>
     <sheet name="credores_assessores_camara" sheetId="12" r:id="rId10"/>
-    <sheet name="credores_filiação_partidaria" sheetId="13" r:id="rId11"/>
-    <sheet name="credores_filiação_direta" sheetId="14" r:id="rId12"/>
+    <sheet name="credores_filiacao_partidaria" sheetId="13" r:id="rId11"/>
+    <sheet name="credores_filiacao_direta" sheetId="14" r:id="rId12"/>
     <sheet name="partidos_prefeitos_vereadores" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">credores_servidores_pref!$A$1:$M$40</definedName>
-    <definedName name="DadosExternos_1" localSheetId="9" hidden="1">credores_assessores_camara!$A$1:$K$3</definedName>
+    <definedName name="DadosExternos_1" localSheetId="9" hidden="1">credores_assessores_camara!$A$1:$K$2</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">credores_doadores_pf!$A$1:$M$26</definedName>
     <definedName name="DadosExternos_1" localSheetId="1" hidden="1">credores_doadores_pj!$A$1:$N$4</definedName>
     <definedName name="DadosExternos_1" localSheetId="2" hidden="1">credores_doadres_direto!$A$1:$J$9</definedName>
-    <definedName name="DadosExternos_1" localSheetId="10" hidden="1">credores_filiação_partidaria!$A$1:$L$63</definedName>
+    <definedName name="DadosExternos_1" localSheetId="10" hidden="1">credores_filiacao_partidaria!$A$1:$L$63</definedName>
     <definedName name="DadosExternos_1" localSheetId="5" hidden="1">credores_fornecedores_pf!$A$1:$M$8</definedName>
     <definedName name="DadosExternos_1" localSheetId="3" hidden="1">credores_fornedores_pj!$A$1:$M$34</definedName>
     <definedName name="DadosExternos_1" localSheetId="7" hidden="1">credores_secretarios!$A$1:$I$2</definedName>
-    <definedName name="DadosExternos_1" localSheetId="6" hidden="1">credores_vereadores!$A$1:$F$5</definedName>
+    <definedName name="DadosExternos_1" localSheetId="6" hidden="1">credores_vereadores!$A$1:$F$4</definedName>
     <definedName name="DadosExternos_1" localSheetId="12" hidden="1">partidos_prefeitos_vereadores!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="814">
   <si>
     <t>categoria</t>
   </si>
@@ -1145,12 +1145,6 @@
     <t>período_mesa_diretora</t>
   </si>
   <si>
-    <t>082.032.257-13</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO INDUSTRIA E COMERCIO / FINANÇAS, ORÇAMENTO, PLANEJAMENTO E TRIBUTAÇAO</t>
-  </si>
-  <si>
     <t>749.971.907-30</t>
   </si>
   <si>
@@ -1779,21 +1773,6 @@
   </si>
   <si>
     <t>Gab. Ver. Nilton Cesar Pereira</t>
-  </si>
-  <si>
-    <t>21.793.296/0001-15</t>
-  </si>
-  <si>
-    <t>R. VIANA MERCADINHO E ACOUGUE EIRELI</t>
-  </si>
-  <si>
-    <t>ROMILDO VIANA</t>
-  </si>
-  <si>
-    <t>Assessor A</t>
-  </si>
-  <si>
-    <t>Gab. Ver. Jose Franco de Muros</t>
   </si>
   <si>
     <t>nome_do_filiado</t>
@@ -2568,7 +2547,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,17 +3106,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3861,8 +3834,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3DF7DDA4-F50F-4755-B005-0B25F80E777D}" name="Credores_X_Vereadores_Mesa_Diretora" displayName="Credores_X_Vereadores_Mesa_Diretora" ref="A1:F5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{3DF60C32-DB1A-40C9-A314-DA8FE1DED615}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3DF7DDA4-F50F-4755-B005-0B25F80E777D}" name="Credores_X_Vereadores_Mesa_Diretora" displayName="Credores_X_Vereadores_Mesa_Diretora" ref="A1:F4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{3DF60C32-DB1A-40C9-A314-DA8FE1DED615}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C26DEE96-9ED8-4582-8B92-0EEF1CAFCEE3}" uniqueName="1" name="ano" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{20D584B3-DF8D-4F81-A386-FC25C653BF36}" uniqueName="2" name="nome" queryTableFieldId="2" dataDxfId="41"/>
@@ -3894,8 +3867,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F4C4449A-9FA2-4881-B702-C7BA6743CCF9}" name="Credores_X_Servidores_Câmara" displayName="Credores_X_Servidores_Câmara" ref="A1:K3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{58323993-F54E-4FEF-9235-12137138A02C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F4C4449A-9FA2-4881-B702-C7BA6743CCF9}" name="Credores_X_Servidores_Câmara" displayName="Credores_X_Servidores_Câmara" ref="A1:K2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{58323993-F54E-4FEF-9235-12137138A02C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3257DAC7-0964-4571-9198-A3168687A818}" uniqueName="1" name="categoria" queryTableFieldId="1" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{84632C8D-743E-47DF-B770-491BC03FE41D}" uniqueName="2" name="ano" queryTableFieldId="2" dataDxfId="27"/>
@@ -3935,7 +3908,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4233,11 +4206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -4253,7 +4226,7 @@
     <col min="13" max="13" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4294,7 +4267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4335,7 +4308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4376,7 +4349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4417,7 +4390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4499,7 +4472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -4540,7 +4513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4581,7 +4554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4622,7 +4595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4661,7 +4634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4784,7 +4757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4866,7 +4839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +4921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4989,7 +4962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -5030,7 +5003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -5071,7 +5044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -5112,7 +5085,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +5126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -5235,7 +5208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5249,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -5327,13 +5300,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583B2D8F-93A3-4902-8DC8-DC118F0E0D74}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -5347,7 +5320,7 @@
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5367,22 +5340,22 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
         <v>549</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>550</v>
       </c>
-      <c r="J1" t="s">
-        <v>551</v>
-      </c>
-      <c r="K1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5390,66 +5363,31 @@
         <v>130</v>
       </c>
       <c r="C2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" t="s">
         <v>553</v>
-      </c>
-      <c r="D2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" t="s">
-        <v>555</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I2" t="s">
         <v>555</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>556</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>557</v>
-      </c>
-      <c r="J2" t="s">
-        <v>558</v>
-      </c>
-      <c r="K2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E3" t="s">
-        <v>562</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H3" t="s">
-        <v>556</v>
-      </c>
-      <c r="I3" t="s">
-        <v>557</v>
-      </c>
-      <c r="J3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K3" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5465,10 +5403,10 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -5483,7 +5421,7 @@
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5503,25 +5441,25 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="J1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="L1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5529,37 +5467,37 @@
         <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5567,37 +5505,37 @@
         <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5605,37 +5543,37 @@
         <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5643,37 +5581,37 @@
         <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I5" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5696,22 +5634,22 @@
         <v>280</v>
       </c>
       <c r="H6" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I6" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5734,22 +5672,22 @@
         <v>280</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5760,7 +5698,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
@@ -5772,22 +5710,22 @@
         <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I8" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5795,37 +5733,37 @@
         <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D9" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E9" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H9" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I9" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5833,37 +5771,37 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E10" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="I10" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="J10" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="K10" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5871,37 +5809,37 @@
         <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D11" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E11" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H11" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="I11" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5924,22 +5862,22 @@
         <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="I12" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L12" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5953,31 +5891,31 @@
         <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H13" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I13" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5985,37 +5923,37 @@
         <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D14" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E14" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H14" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I14" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6023,37 +5961,37 @@
         <v>172</v>
       </c>
       <c r="C15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E15" t="s">
         <v>553</v>
-      </c>
-      <c r="D15" t="s">
-        <v>554</v>
-      </c>
-      <c r="E15" t="s">
-        <v>555</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H15" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I15" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6061,37 +5999,37 @@
         <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D16" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E16" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H16" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I16" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L16" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -6099,37 +6037,37 @@
         <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6137,37 +6075,37 @@
         <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D18" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E18" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I18" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L18" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -6175,37 +6113,37 @@
         <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D19" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H19" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I19" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L19" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6213,37 +6151,37 @@
         <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D20" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E20" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I20" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L20" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -6251,37 +6189,37 @@
         <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D21" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E21" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H21" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I21" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L21" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6289,37 +6227,37 @@
         <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D22" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H22" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="I22" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L22" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -6327,37 +6265,37 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D23" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E23" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="H23" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I23" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L23" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6365,37 +6303,37 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D24" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E24" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="H24" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I24" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L24" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -6403,37 +6341,37 @@
         <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D25" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E25" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="H25" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I25" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6441,37 +6379,37 @@
         <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E26" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="H26" t="s">
+        <v>565</v>
+      </c>
+      <c r="I26" t="s">
         <v>572</v>
       </c>
-      <c r="I26" t="s">
-        <v>579</v>
-      </c>
       <c r="J26" t="s">
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6479,37 +6417,37 @@
         <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D27" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E27" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F27" t="s">
         <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="H27" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I27" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L27" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -6517,37 +6455,37 @@
         <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D28" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E28" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F28" t="s">
         <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="H28" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="I28" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L28" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -6555,37 +6493,37 @@
         <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D29" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E29" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F29" t="s">
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="I29" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L29" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -6593,37 +6531,37 @@
         <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6631,37 +6569,37 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D31" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E31" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H31" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I31" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L31" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -6669,37 +6607,37 @@
         <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E32" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H32" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I32" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="J32" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="K32" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6707,37 +6645,37 @@
         <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D33" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E33" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H33" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I33" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L33" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -6745,37 +6683,37 @@
         <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E34" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F34" t="s">
         <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="H34" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="I34" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -6783,37 +6721,37 @@
         <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D35" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E35" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F35" t="s">
         <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H35" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I35" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L35" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -6824,7 +6762,7 @@
         <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E36" t="s">
         <v>103</v>
@@ -6836,22 +6774,22 @@
         <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="I36" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="J36" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="K36" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L36" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -6865,31 +6803,31 @@
         <v>303</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -6897,37 +6835,37 @@
         <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D38" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E38" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H38" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I38" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L38" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -6935,37 +6873,37 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D39" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E39" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="H39" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="I39" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="J39" t="s">
         <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L39" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -6973,37 +6911,37 @@
         <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D40" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E40" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H40" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I40" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="J40" t="s">
         <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L40" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -7011,37 +6949,37 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D41" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E41" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="H41" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I41" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L41" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -7049,37 +6987,37 @@
         <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D42" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E42" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F42" t="s">
         <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="H42" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I42" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L42" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -7087,37 +7025,37 @@
         <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -7125,37 +7063,37 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D44" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E44" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="H44" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I44" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L44" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -7163,37 +7101,37 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="D45" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E45" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="H45" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I45" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="J45" t="s">
         <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L45" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -7201,37 +7139,37 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D46" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E46" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="H46" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="I46" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="J46" t="s">
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L46" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -7257,19 +7195,19 @@
         <v>39</v>
       </c>
       <c r="I47" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L47" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
@@ -7277,37 +7215,37 @@
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -7315,37 +7253,37 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E49" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="H49" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I49" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L49" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -7353,37 +7291,37 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D50" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E50" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F50" t="s">
         <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H50" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="I50" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L50" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -7391,37 +7329,37 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D51" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E51" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="F51" t="s">
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="H51" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="I51" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L51" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -7429,37 +7367,37 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D52" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E52" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F52" t="s">
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="H52" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I52" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L52" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -7467,37 +7405,37 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D53" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E53" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H53" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="I53" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L53" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -7505,37 +7443,37 @@
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -7543,37 +7481,37 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D55" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E55" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="H55" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I55" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L55" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -7596,22 +7534,22 @@
         <v>92</v>
       </c>
       <c r="H56" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I56" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L56" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -7619,37 +7557,37 @@
         <v>330</v>
       </c>
       <c r="C57" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D57" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E57" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F57" t="s">
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="H57" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I57" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L57" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -7657,37 +7595,37 @@
         <v>330</v>
       </c>
       <c r="C58" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D58" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="E58" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="F58" t="s">
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H58" t="s">
         <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L58" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -7695,37 +7633,37 @@
         <v>330</v>
       </c>
       <c r="C59" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D59" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="E59" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F59" t="s">
         <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="H59" t="s">
         <v>39</v>
       </c>
       <c r="I59" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="J59" t="s">
         <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L59" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -7739,31 +7677,31 @@
         <v>332</v>
       </c>
       <c r="E60" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="H60" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I60" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L60" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="2" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -7786,22 +7724,22 @@
         <v>333</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -7809,37 +7747,37 @@
         <v>330</v>
       </c>
       <c r="C62" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D62" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E62" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F62" t="s">
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="H62" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I62" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L62" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -7847,34 +7785,34 @@
         <v>330</v>
       </c>
       <c r="C63" t="s">
+        <v>493</v>
+      </c>
+      <c r="D63" t="s">
+        <v>494</v>
+      </c>
+      <c r="E63" t="s">
         <v>495</v>
-      </c>
-      <c r="D63" t="s">
-        <v>496</v>
-      </c>
-      <c r="E63" t="s">
-        <v>497</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H63" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I63" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L63" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -7889,11 +7827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA17E21-9872-4DF2-BC4E-2B1253B7501F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -7913,192 +7851,192 @@
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I3" t="s">
+        <v>788</v>
+      </c>
+      <c r="J3" t="s">
+        <v>565</v>
+      </c>
+      <c r="K3" t="s">
+        <v>790</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>567</v>
+      </c>
+      <c r="O3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D3" t="s">
-        <v>794</v>
-      </c>
-      <c r="E3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F3" t="s">
-        <v>788</v>
-      </c>
-      <c r="G3" t="s">
-        <v>789</v>
-      </c>
-      <c r="H3" t="s">
-        <v>796</v>
-      </c>
-      <c r="I3" t="s">
-        <v>795</v>
-      </c>
-      <c r="J3" t="s">
-        <v>572</v>
-      </c>
-      <c r="K3" t="s">
-        <v>797</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>574</v>
-      </c>
-      <c r="O3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>575</v>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -8111,10 +8049,10 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -8123,27 +8061,27 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D1" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E1" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -8151,206 +8089,206 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F5" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D6" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E6" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F6" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F7" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E8" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F8" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F10" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F11" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D12" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F12" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F14" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F15" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F16" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8358,133 +8296,133 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F17" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B20" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" t="s">
+        <v>565</v>
+      </c>
+      <c r="F20" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="B20" t="s">
-        <v>709</v>
-      </c>
-      <c r="C20" t="s">
-        <v>572</v>
-      </c>
-      <c r="F20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>816</v>
+      <c r="B23" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>809</v>
       </c>
       <c r="B24" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F24" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>818</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
-        <v>820</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>813</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C28" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F28" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -8499,11 +8437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -8518,7 +8456,7 @@
     <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8606,7 +8544,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -8650,7 +8588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8707,10 +8645,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -8723,7 +8661,7 @@
     <col min="10" max="10" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -8755,7 +8693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -8787,7 +8725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -8819,7 +8757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -8851,7 +8789,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -8883,7 +8821,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -8915,7 +8853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -8947,7 +8885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
@@ -8979,7 +8917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -9023,11 +8961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4EFF03-E066-4748-B7F1-285AC18802EE}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -9043,7 +8981,7 @@
     <col min="13" max="13" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9084,7 +9022,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9125,7 +9063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9166,7 +9104,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -9207,7 +9145,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -9248,7 +9186,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -9289,7 +9227,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -9330,7 +9268,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9371,7 +9309,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -9412,7 +9350,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -9453,7 +9391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -9494,7 +9432,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -9535,7 +9473,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -9576,7 +9514,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9617,7 +9555,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9658,7 +9596,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9699,7 +9637,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -9740,7 +9678,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -9781,7 +9719,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -9822,7 +9760,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -9863,7 +9801,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -9904,7 +9842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -9945,7 +9883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -9986,7 +9924,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -10027,7 +9965,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -10068,7 +10006,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -10109,7 +10047,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -10150,7 +10088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -10191,7 +10129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -10232,7 +10170,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -10273,7 +10211,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -10314,7 +10252,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -10355,7 +10293,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -10396,7 +10334,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -10450,10 +10388,10 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
@@ -10467,7 +10405,7 @@
     <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -10499,7 +10437,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -10531,7 +10469,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -10563,7 +10501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -10595,7 +10533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -10627,7 +10565,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -10659,7 +10597,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -10691,7 +10629,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -10723,7 +10661,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -10755,7 +10693,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -10787,7 +10725,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -10819,7 +10757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -10851,7 +10789,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -10883,7 +10821,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -10915,7 +10853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -10947,7 +10885,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -10979,7 +10917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -11020,11 +10958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB5F57-F1AD-4058-AF0F-6D4BDFDBB04C}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -11040,7 +10978,7 @@
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11081,7 +11019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11122,7 +11060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -11163,7 +11101,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -11204,7 +11142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11245,7 +11183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -11286,7 +11224,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11327,7 +11265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11378,13 +11316,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140722CE-7C3E-4C8D-93F4-C04C0A0EA5F6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -11394,7 +11332,7 @@
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -11414,84 +11352,64 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>294</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="s">
         <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="s">
         <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
         <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
         <v>350</v>
-      </c>
-      <c r="D5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -11507,10 +11425,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -11523,7 +11441,7 @@
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11543,16 +11461,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" t="s">
         <v>353</v>
       </c>
-      <c r="H1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11575,10 +11493,10 @@
         <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -11593,11 +11511,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F34F53-BA3A-4D37-AA5C-382577DA0AAF}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -11612,7 +11530,7 @@
     <col min="12" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11632,28 +11550,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -11661,40 +11579,40 @@
         <v>130</v>
       </c>
       <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" t="s">
         <v>365</v>
-      </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" t="s">
-        <v>367</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" t="s">
         <v>367</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>368</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>369</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2" t="s">
-        <v>371</v>
-      </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -11702,40 +11620,40 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" t="s">
         <v>372</v>
-      </c>
-      <c r="D3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>374</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>374</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>375</v>
       </c>
-      <c r="I3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>376</v>
-      </c>
-      <c r="L3" t="s">
-        <v>377</v>
-      </c>
       <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -11743,40 +11661,40 @@
         <v>130</v>
       </c>
       <c r="C4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" t="s">
         <v>378</v>
-      </c>
-      <c r="D4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" t="s">
-        <v>380</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I4" t="s">
         <v>380</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" t="s">
         <v>381</v>
       </c>
-      <c r="I4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>370</v>
-      </c>
-      <c r="L4" t="s">
-        <v>383</v>
-      </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11784,40 +11702,40 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" t="s">
         <v>384</v>
-      </c>
-      <c r="D5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" t="s">
-        <v>386</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" t="s">
+        <v>380</v>
+      </c>
+      <c r="J5" t="s">
         <v>386</v>
       </c>
-      <c r="H5" t="s">
-        <v>387</v>
-      </c>
-      <c r="I5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J5" t="s">
-        <v>388</v>
-      </c>
       <c r="K5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -11825,40 +11743,40 @@
         <v>130</v>
       </c>
       <c r="C6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" t="s">
         <v>389</v>
-      </c>
-      <c r="D6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" t="s">
-        <v>391</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>368</v>
+      </c>
+      <c r="L6" t="s">
         <v>391</v>
       </c>
-      <c r="H6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>370</v>
-      </c>
-      <c r="L6" t="s">
-        <v>393</v>
-      </c>
       <c r="M6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11872,34 +11790,34 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J7" t="s">
         <v>394</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>395</v>
       </c>
-      <c r="I7" t="s">
-        <v>369</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>396</v>
       </c>
-      <c r="K7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L7" t="s">
-        <v>398</v>
-      </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11913,34 +11831,34 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
       </c>
       <c r="G8" t="s">
+        <v>392</v>
+      </c>
+      <c r="H8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" t="s">
         <v>394</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>395</v>
       </c>
-      <c r="I8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>396</v>
       </c>
-      <c r="K8" t="s">
-        <v>397</v>
-      </c>
-      <c r="L8" t="s">
-        <v>398</v>
-      </c>
       <c r="M8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -11948,40 +11866,40 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" t="s">
         <v>399</v>
-      </c>
-      <c r="D9" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" t="s">
-        <v>401</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" t="s">
         <v>401</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" t="s">
         <v>402</v>
       </c>
-      <c r="I9" t="s">
-        <v>403</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>370</v>
-      </c>
-      <c r="L9" t="s">
-        <v>404</v>
-      </c>
       <c r="M9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -11989,40 +11907,40 @@
         <v>130</v>
       </c>
       <c r="C10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
         <v>405</v>
-      </c>
-      <c r="D10" t="s">
-        <v>406</v>
-      </c>
-      <c r="E10" t="s">
-        <v>407</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I10" t="s">
         <v>407</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>408</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>368</v>
+      </c>
+      <c r="L10" t="s">
         <v>409</v>
       </c>
-      <c r="J10" t="s">
-        <v>410</v>
-      </c>
-      <c r="K10" t="s">
-        <v>370</v>
-      </c>
-      <c r="L10" t="s">
-        <v>411</v>
-      </c>
       <c r="M10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -12030,40 +11948,40 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" t="s">
         <v>412</v>
-      </c>
-      <c r="D11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E11" t="s">
-        <v>414</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" t="s">
+        <v>413</v>
+      </c>
+      <c r="I11" t="s">
         <v>414</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>415</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>395</v>
+      </c>
+      <c r="L11" t="s">
         <v>416</v>
       </c>
-      <c r="J11" t="s">
-        <v>417</v>
-      </c>
-      <c r="K11" t="s">
-        <v>397</v>
-      </c>
-      <c r="L11" t="s">
-        <v>418</v>
-      </c>
       <c r="M11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -12077,34 +11995,34 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="G12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I12" t="s">
         <v>419</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>408</v>
+      </c>
+      <c r="K12" t="s">
         <v>420</v>
       </c>
-      <c r="I12" t="s">
-        <v>421</v>
-      </c>
-      <c r="J12" t="s">
-        <v>410</v>
-      </c>
-      <c r="K12" t="s">
-        <v>422</v>
-      </c>
       <c r="L12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -12112,40 +12030,40 @@
         <v>130</v>
       </c>
       <c r="C13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" t="s">
         <v>423</v>
-      </c>
-      <c r="D13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E13" t="s">
-        <v>425</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="G13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" t="s">
         <v>425</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" t="s">
         <v>426</v>
       </c>
-      <c r="I13" t="s">
-        <v>427</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>370</v>
-      </c>
-      <c r="L13" t="s">
-        <v>428</v>
-      </c>
       <c r="M13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -12153,40 +12071,40 @@
         <v>130</v>
       </c>
       <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" t="s">
         <v>429</v>
-      </c>
-      <c r="D14" t="s">
-        <v>430</v>
-      </c>
-      <c r="E14" t="s">
-        <v>431</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H14" t="s">
+        <v>430</v>
+      </c>
+      <c r="I14" t="s">
         <v>431</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>432</v>
       </c>
-      <c r="I14" t="s">
-        <v>433</v>
-      </c>
-      <c r="J14" t="s">
-        <v>434</v>
-      </c>
       <c r="K14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -12200,34 +12118,34 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H15" t="s">
+        <v>434</v>
+      </c>
+      <c r="I15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J15" t="s">
+        <v>394</v>
+      </c>
+      <c r="K15" t="s">
+        <v>395</v>
+      </c>
+      <c r="L15" t="s">
         <v>435</v>
       </c>
-      <c r="H15" t="s">
-        <v>436</v>
-      </c>
-      <c r="I15" t="s">
-        <v>382</v>
-      </c>
-      <c r="J15" t="s">
-        <v>396</v>
-      </c>
-      <c r="K15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L15" t="s">
-        <v>437</v>
-      </c>
       <c r="M15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -12241,34 +12159,34 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
       </c>
       <c r="G16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" t="s">
+        <v>437</v>
+      </c>
+      <c r="I16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>368</v>
+      </c>
+      <c r="L16" t="s">
         <v>438</v>
       </c>
-      <c r="H16" t="s">
-        <v>439</v>
-      </c>
-      <c r="I16" t="s">
-        <v>369</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>370</v>
-      </c>
-      <c r="L16" t="s">
-        <v>440</v>
-      </c>
       <c r="M16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -12291,25 +12209,25 @@
         <v>54</v>
       </c>
       <c r="H17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I17" t="s">
+        <v>440</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" t="s">
         <v>441</v>
       </c>
-      <c r="I17" t="s">
-        <v>442</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>370</v>
-      </c>
-      <c r="L17" t="s">
-        <v>443</v>
-      </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -12332,25 +12250,25 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
+        <v>442</v>
+      </c>
+      <c r="I18" t="s">
+        <v>367</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>443</v>
+      </c>
+      <c r="L18" t="s">
         <v>444</v>
       </c>
-      <c r="I18" t="s">
-        <v>369</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>445</v>
-      </c>
-      <c r="L18" t="s">
-        <v>446</v>
-      </c>
       <c r="M18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -12373,25 +12291,25 @@
         <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -12399,40 +12317,40 @@
         <v>130</v>
       </c>
       <c r="C20" t="s">
+        <v>447</v>
+      </c>
+      <c r="D20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" t="s">
         <v>449</v>
-      </c>
-      <c r="D20" t="s">
-        <v>450</v>
-      </c>
-      <c r="E20" t="s">
-        <v>451</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
       </c>
       <c r="G20" t="s">
+        <v>449</v>
+      </c>
+      <c r="H20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" t="s">
         <v>451</v>
       </c>
-      <c r="H20" t="s">
-        <v>452</v>
-      </c>
-      <c r="I20" t="s">
-        <v>369</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>370</v>
-      </c>
-      <c r="L20" t="s">
-        <v>453</v>
-      </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -12440,40 +12358,40 @@
         <v>130</v>
       </c>
       <c r="C21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" t="s">
         <v>454</v>
-      </c>
-      <c r="D21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E21" t="s">
-        <v>456</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
       </c>
       <c r="G21" t="s">
+        <v>454</v>
+      </c>
+      <c r="H21" t="s">
+        <v>455</v>
+      </c>
+      <c r="I21" t="s">
         <v>456</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>368</v>
+      </c>
+      <c r="L21" t="s">
         <v>457</v>
       </c>
-      <c r="I21" t="s">
-        <v>458</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>370</v>
-      </c>
-      <c r="L21" t="s">
-        <v>459</v>
-      </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -12481,40 +12399,40 @@
         <v>130</v>
       </c>
       <c r="C22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" t="s">
         <v>460</v>
-      </c>
-      <c r="D22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22" t="s">
-        <v>462</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
       </c>
       <c r="G22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22" t="s">
+        <v>461</v>
+      </c>
+      <c r="I22" t="s">
         <v>462</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>368</v>
+      </c>
+      <c r="L22" t="s">
         <v>463</v>
       </c>
-      <c r="I22" t="s">
-        <v>464</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>370</v>
-      </c>
-      <c r="L22" t="s">
-        <v>465</v>
-      </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -12522,40 +12440,40 @@
         <v>130</v>
       </c>
       <c r="C23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
         <v>466</v>
-      </c>
-      <c r="D23" t="s">
-        <v>467</v>
-      </c>
-      <c r="E23" t="s">
-        <v>468</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
       </c>
       <c r="G23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H23" t="s">
+        <v>467</v>
+      </c>
+      <c r="I23" t="s">
+        <v>456</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>368</v>
+      </c>
+      <c r="L23" t="s">
         <v>468</v>
       </c>
-      <c r="H23" t="s">
-        <v>469</v>
-      </c>
-      <c r="I23" t="s">
-        <v>458</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>370</v>
-      </c>
-      <c r="L23" t="s">
-        <v>470</v>
-      </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -12563,40 +12481,40 @@
         <v>330</v>
       </c>
       <c r="C24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" t="s">
         <v>471</v>
-      </c>
-      <c r="D24" t="s">
-        <v>472</v>
-      </c>
-      <c r="E24" t="s">
-        <v>473</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
+        <v>471</v>
+      </c>
+      <c r="H24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I24" t="s">
+        <v>401</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>368</v>
+      </c>
+      <c r="L24" t="s">
         <v>473</v>
       </c>
-      <c r="H24" t="s">
-        <v>474</v>
-      </c>
-      <c r="I24" t="s">
-        <v>403</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>370</v>
-      </c>
-      <c r="L24" t="s">
-        <v>475</v>
-      </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -12604,40 +12522,40 @@
         <v>130</v>
       </c>
       <c r="C25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" t="s">
         <v>476</v>
-      </c>
-      <c r="D25" t="s">
-        <v>477</v>
-      </c>
-      <c r="E25" t="s">
-        <v>478</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
       </c>
       <c r="G25" t="s">
+        <v>476</v>
+      </c>
+      <c r="H25" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" t="s">
         <v>478</v>
       </c>
-      <c r="H25" t="s">
-        <v>479</v>
-      </c>
-      <c r="I25" t="s">
-        <v>480</v>
-      </c>
       <c r="J25" t="s">
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -12648,7 +12566,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
@@ -12660,25 +12578,25 @@
         <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -12686,40 +12604,40 @@
         <v>130</v>
       </c>
       <c r="C27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E27" t="s">
         <v>484</v>
-      </c>
-      <c r="D27" t="s">
-        <v>485</v>
-      </c>
-      <c r="E27" t="s">
-        <v>486</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
       <c r="G27" t="s">
+        <v>484</v>
+      </c>
+      <c r="H27" t="s">
+        <v>485</v>
+      </c>
+      <c r="I27" t="s">
         <v>486</v>
       </c>
-      <c r="H27" t="s">
-        <v>487</v>
-      </c>
-      <c r="I27" t="s">
-        <v>488</v>
-      </c>
       <c r="J27" t="s">
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -12727,40 +12645,40 @@
         <v>130</v>
       </c>
       <c r="C28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E28" t="s">
         <v>489</v>
-      </c>
-      <c r="D28" t="s">
-        <v>490</v>
-      </c>
-      <c r="E28" t="s">
-        <v>491</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
       </c>
       <c r="G28" t="s">
+        <v>489</v>
+      </c>
+      <c r="H28" t="s">
+        <v>490</v>
+      </c>
+      <c r="I28" t="s">
         <v>491</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" t="s">
         <v>492</v>
       </c>
-      <c r="I28" t="s">
-        <v>493</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>370</v>
-      </c>
-      <c r="L28" t="s">
-        <v>494</v>
-      </c>
       <c r="M28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -12768,40 +12686,40 @@
         <v>330</v>
       </c>
       <c r="C29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" t="s">
+        <v>494</v>
+      </c>
+      <c r="E29" t="s">
         <v>495</v>
-      </c>
-      <c r="D29" t="s">
-        <v>496</v>
-      </c>
-      <c r="E29" t="s">
-        <v>497</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
+        <v>495</v>
+      </c>
+      <c r="H29" t="s">
+        <v>496</v>
+      </c>
+      <c r="I29" t="s">
         <v>497</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>498</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
+        <v>395</v>
+      </c>
+      <c r="L29" t="s">
         <v>499</v>
       </c>
-      <c r="J29" t="s">
-        <v>500</v>
-      </c>
-      <c r="K29" t="s">
-        <v>397</v>
-      </c>
-      <c r="L29" t="s">
-        <v>501</v>
-      </c>
       <c r="M29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -12809,40 +12727,40 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" t="s">
         <v>502</v>
-      </c>
-      <c r="D30" t="s">
-        <v>503</v>
-      </c>
-      <c r="E30" t="s">
-        <v>504</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -12850,40 +12768,40 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -12891,40 +12809,40 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" t="s">
         <v>508</v>
-      </c>
-      <c r="D32" t="s">
-        <v>509</v>
-      </c>
-      <c r="E32" t="s">
-        <v>510</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
+        <v>508</v>
+      </c>
+      <c r="H32" t="s">
+        <v>509</v>
+      </c>
+      <c r="I32" t="s">
+        <v>367</v>
+      </c>
+      <c r="J32" t="s">
         <v>510</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
+        <v>395</v>
+      </c>
+      <c r="L32" t="s">
         <v>511</v>
       </c>
-      <c r="I32" t="s">
-        <v>369</v>
-      </c>
-      <c r="J32" t="s">
-        <v>512</v>
-      </c>
-      <c r="K32" t="s">
-        <v>397</v>
-      </c>
-      <c r="L32" t="s">
-        <v>513</v>
-      </c>
       <c r="M32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -12932,40 +12850,40 @@
         <v>330</v>
       </c>
       <c r="C33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D33" t="s">
+        <v>513</v>
+      </c>
+      <c r="E33" t="s">
         <v>514</v>
-      </c>
-      <c r="D33" t="s">
-        <v>515</v>
-      </c>
-      <c r="E33" t="s">
-        <v>516</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
+        <v>514</v>
+      </c>
+      <c r="H33" t="s">
+        <v>515</v>
+      </c>
+      <c r="I33" t="s">
+        <v>431</v>
+      </c>
+      <c r="J33" t="s">
+        <v>394</v>
+      </c>
+      <c r="K33" t="s">
+        <v>395</v>
+      </c>
+      <c r="L33" t="s">
         <v>516</v>
       </c>
-      <c r="H33" t="s">
-        <v>517</v>
-      </c>
-      <c r="I33" t="s">
-        <v>433</v>
-      </c>
-      <c r="J33" t="s">
-        <v>396</v>
-      </c>
-      <c r="K33" t="s">
-        <v>397</v>
-      </c>
-      <c r="L33" t="s">
-        <v>518</v>
-      </c>
       <c r="M33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -12973,40 +12891,40 @@
         <v>130</v>
       </c>
       <c r="C34" t="s">
+        <v>517</v>
+      </c>
+      <c r="D34" t="s">
+        <v>518</v>
+      </c>
+      <c r="E34" t="s">
         <v>519</v>
-      </c>
-      <c r="D34" t="s">
-        <v>520</v>
-      </c>
-      <c r="E34" t="s">
-        <v>521</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
       </c>
       <c r="G34" t="s">
+        <v>519</v>
+      </c>
+      <c r="H34" t="s">
+        <v>520</v>
+      </c>
+      <c r="I34" t="s">
+        <v>367</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
         <v>521</v>
       </c>
-      <c r="H34" t="s">
+      <c r="L34" t="s">
         <v>522</v>
       </c>
-      <c r="I34" t="s">
-        <v>369</v>
-      </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>523</v>
-      </c>
-      <c r="L34" t="s">
-        <v>524</v>
-      </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -13014,40 +12932,40 @@
         <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E35" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F35" t="s">
         <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -13055,40 +12973,40 @@
         <v>130</v>
       </c>
       <c r="C36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D36" t="s">
+        <v>526</v>
+      </c>
+      <c r="E36" t="s">
         <v>527</v>
-      </c>
-      <c r="D36" t="s">
-        <v>528</v>
-      </c>
-      <c r="E36" t="s">
-        <v>529</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
       </c>
       <c r="G36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H36" t="s">
+        <v>528</v>
+      </c>
+      <c r="I36" t="s">
+        <v>431</v>
+      </c>
+      <c r="J36" t="s">
         <v>529</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
+        <v>395</v>
+      </c>
+      <c r="L36" t="s">
         <v>530</v>
       </c>
-      <c r="I36" t="s">
-        <v>433</v>
-      </c>
-      <c r="J36" t="s">
-        <v>531</v>
-      </c>
-      <c r="K36" t="s">
-        <v>397</v>
-      </c>
-      <c r="L36" t="s">
-        <v>532</v>
-      </c>
       <c r="M36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -13096,40 +13014,40 @@
         <v>130</v>
       </c>
       <c r="C37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D37" t="s">
+        <v>532</v>
+      </c>
+      <c r="E37" t="s">
         <v>533</v>
-      </c>
-      <c r="D37" t="s">
-        <v>534</v>
-      </c>
-      <c r="E37" t="s">
-        <v>535</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
       </c>
       <c r="G37" t="s">
+        <v>533</v>
+      </c>
+      <c r="H37" t="s">
+        <v>534</v>
+      </c>
+      <c r="I37" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>368</v>
+      </c>
+      <c r="L37" t="s">
         <v>535</v>
       </c>
-      <c r="H37" t="s">
-        <v>536</v>
-      </c>
-      <c r="I37" t="s">
-        <v>493</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>370</v>
-      </c>
-      <c r="L37" t="s">
-        <v>537</v>
-      </c>
       <c r="M37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -13152,25 +13070,25 @@
         <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -13178,40 +13096,40 @@
         <v>130</v>
       </c>
       <c r="C39" t="s">
+        <v>537</v>
+      </c>
+      <c r="D39" t="s">
+        <v>538</v>
+      </c>
+      <c r="E39" t="s">
         <v>539</v>
-      </c>
-      <c r="D39" t="s">
-        <v>540</v>
-      </c>
-      <c r="E39" t="s">
-        <v>541</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
       </c>
       <c r="G39" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" t="s">
+        <v>540</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" t="s">
         <v>541</v>
       </c>
-      <c r="H39" t="s">
-        <v>542</v>
-      </c>
-      <c r="I39" t="s">
-        <v>369</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>370</v>
-      </c>
-      <c r="L39" t="s">
-        <v>543</v>
-      </c>
       <c r="M39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -13219,41 +13137,41 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E40" t="s">
         <v>544</v>
-      </c>
-      <c r="D40" t="s">
-        <v>545</v>
-      </c>
-      <c r="E40" t="s">
-        <v>546</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
       </c>
       <c r="G40" t="s">
+        <v>544</v>
+      </c>
+      <c r="H40" t="s">
+        <v>545</v>
+      </c>
+      <c r="I40" t="s">
+        <v>431</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>368</v>
+      </c>
+      <c r="L40" t="s">
         <v>546</v>
       </c>
-      <c r="H40" t="s">
-        <v>547</v>
-      </c>
-      <c r="I40" t="s">
-        <v>433</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>370</v>
-      </c>
-      <c r="L40" t="s">
-        <v>548</v>
-      </c>
       <c r="M40" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M40" xr:uid="{7DF21BBF-FF16-4C1F-83EE-66BAF042E185}"/>
+  <autoFilter ref="A1:M40" xr:uid="{123B2B6B-AB43-457E-84FB-802A9EA04952}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M40">
     <sortCondition ref="E2:E40"/>
   </sortState>
@@ -13265,5 +13183,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C19789-B58E-4844-B19E-FF5B68625495}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C19789-B58E-4844-B19E-FF5B68625495}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fontes_db/Tabela_Partes_Relacionadas.xlsx
+++ b/fontes_db/Tabela_Partes_Relacionadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bae14409b2dbeb7/Doutorado/Tese/Partes Relacionadas/Database/Base Final/SQL/Resultado/Resultado Detalhado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606A51F-3A66-E14F-A396-55D1DA568108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{660F67FA-69DD-4BDE-A1B6-86B4FBEFBBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBA3FD3C-7AD4-4BF4-9740-08475F5139B4}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1300" windowWidth="18760" windowHeight="14480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credores_doadores" sheetId="16" r:id="rId1"/>
@@ -21,8 +21,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">credores_doadores!$A$1:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">credores_fornecedores!$A$1:$I$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">credores_servidores_pref!$A$1:$H$34</definedName>
-    <definedName name="DadosExternos_1" localSheetId="3" hidden="1">credores_filiacao_partidaria!$A$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">credores_servidores_pref!$A$1:$H$32</definedName>
+    <definedName name="DadosExternos_1" localSheetId="3" hidden="1">credores_filiacao_partidaria!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="444">
   <si>
     <t>cnpj_empresa</t>
   </si>
@@ -187,9 +187,6 @@
     <t>31.918.196/0001-21</t>
   </si>
   <si>
-    <t>TAECO MATERIAIS DE CONSTRUÇAO LTDA</t>
-  </si>
-  <si>
     <t>LEILA DA SILVA TAVARES FONSECA</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>10.612.199/0001-62</t>
   </si>
   <si>
-    <t>AUTOLAGOS COMERCIO DE PEÇAS LTDA - ME</t>
-  </si>
-  <si>
     <t>WILLIAN GUIMARAES</t>
   </si>
   <si>
@@ -526,21 +520,6 @@
     <t>SECR MUN MOBILIDADE URBANA</t>
   </si>
   <si>
-    <t>04.863.356/0001-00</t>
-  </si>
-  <si>
-    <t>DELTA M V N COMERCIO E SERV. LTDA</t>
-  </si>
-  <si>
-    <t>CARLOS MANUEL FIGUEIREDO MACARIO</t>
-  </si>
-  <si>
-    <t>3**.62*.*07-**</t>
-  </si>
-  <si>
-    <t>ASSESSOR FUNCIONAL-CC/GFS-V</t>
-  </si>
-  <si>
     <t>40.447.047/0001-12</t>
   </si>
   <si>
@@ -784,24 +763,6 @@
     <t>SUBSEC MUN ENSINO FUNDAMENTAL</t>
   </si>
   <si>
-    <t>33.629.787/0001-04</t>
-  </si>
-  <si>
-    <t>M. J. X. BRASIL COMERCIO E SERVICOS EIRELI</t>
-  </si>
-  <si>
-    <t>MICHELLE CRISTINA NETO DE LIMA</t>
-  </si>
-  <si>
-    <t>0**.15*.*87-**</t>
-  </si>
-  <si>
-    <t>GABINETE DO PREFEITO</t>
-  </si>
-  <si>
-    <t>ASS.INTERMEDIARIO-CAI/CAIS-II</t>
-  </si>
-  <si>
     <t>36.578.565/0001-06</t>
   </si>
   <si>
@@ -865,9 +826,6 @@
     <t>01.783.854/0001-54</t>
   </si>
   <si>
-    <t>ASSOCIAÇÃO PAIS E AMIGOS DOS JUDOCAS</t>
-  </si>
-  <si>
     <t>SHIRO MATSUDA</t>
   </si>
   <si>
@@ -880,9 +838,6 @@
     <t>02.904.967/0001-23</t>
   </si>
   <si>
-    <t>COMACHARQUE COM. DE MÁQUINAS E EQUIP. LTDA EPP</t>
-  </si>
-  <si>
     <t>SILVANA MARIA PEREIRA DA SILVA</t>
   </si>
   <si>
@@ -994,9 +949,6 @@
     <t>36.290.401/0001-70</t>
   </si>
   <si>
-    <t>IRMAOS PRATA CONSTRUÇÃO E CONSERVAÇÃO LTDA-ME</t>
-  </si>
-  <si>
     <t>ROBERTO PRATA MOREIRA</t>
   </si>
   <si>
@@ -1030,30 +982,9 @@
     <t>02/11/2018</t>
   </si>
   <si>
-    <t>09.505.149/0001-05</t>
-  </si>
-  <si>
-    <t>SUCBRAS VEND. DE EQUIP. DE SEG. E SERVIÇOS LTDA</t>
-  </si>
-  <si>
-    <t>CARLOS DE OLIVEIRA FERNANDES</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>30/09/2013</t>
-  </si>
-  <si>
-    <t>12/01/2018</t>
-  </si>
-  <si>
     <t>31.403.264/0001-10</t>
   </si>
   <si>
-    <t>FRANÇA E MARINS LTDA</t>
-  </si>
-  <si>
     <t>LUIS CLAUDIO MARINS FRANCA</t>
   </si>
   <si>
@@ -1063,21 +994,9 @@
     <t>03/10/2007</t>
   </si>
   <si>
-    <t>04.190.058/0001-04</t>
-  </si>
-  <si>
-    <t>TORNADO-VIGILANCIA E CONSERVAÇAO LTDA</t>
-  </si>
-  <si>
-    <t>DAVID VIEIRA DE MATOS</t>
-  </si>
-  <si>
     <t>PSDB</t>
   </si>
   <si>
-    <t>28/09/1995</t>
-  </si>
-  <si>
     <t>22/09/2015</t>
   </si>
   <si>
@@ -1168,18 +1087,6 @@
     <t>06/10/2011</t>
   </si>
   <si>
-    <t>30.405.179/0001-28</t>
-  </si>
-  <si>
-    <t>COLONIA DE PESCADORES Z3 DE MACAE</t>
-  </si>
-  <si>
-    <t>EDUARDO GONCALVES DA SILVA</t>
-  </si>
-  <si>
-    <t>29/09/2009</t>
-  </si>
-  <si>
     <t>39.711.817/0001-03</t>
   </si>
   <si>
@@ -1225,9 +1132,6 @@
     <t>08.931.894/0001-45</t>
   </si>
   <si>
-    <t>E. SOUZA &amp; FILHO MATERIAIS DE CONSTRUÇAO LTDA</t>
-  </si>
-  <si>
     <t>LUCIA ELENA DE SOUZA</t>
   </si>
   <si>
@@ -1237,9 +1141,6 @@
     <t>11.114.848/0001-68</t>
   </si>
   <si>
-    <t>L. ALVES VIDRAÇARIA LTDA</t>
-  </si>
-  <si>
     <t>LUIZ ANTONIO ALVES RAMOS</t>
   </si>
   <si>
@@ -1252,30 +1153,12 @@
     <t>11.219.742/0001-29</t>
   </si>
   <si>
-    <t>CARMELO COMERCIO E SERVIÇOS LTDA-ME</t>
-  </si>
-  <si>
     <t>ANTONIO MARCOS DE SOUZA</t>
   </si>
   <si>
     <t>29/07/2004</t>
   </si>
   <si>
-    <t>13.640.163/0001-80</t>
-  </si>
-  <si>
-    <t>BARRENSE FUTEBOL CLUBE - BFC</t>
-  </si>
-  <si>
-    <t>CRISTIANO FERREIRA DE LIMA</t>
-  </si>
-  <si>
-    <t>PCDOB</t>
-  </si>
-  <si>
-    <t>16/04/2012</t>
-  </si>
-  <si>
     <t>29.695.400/0001-40</t>
   </si>
   <si>
@@ -1363,18 +1246,6 @@
     <t>06/06/1993</t>
   </si>
   <si>
-    <t>05.065.779/0001-47</t>
-  </si>
-  <si>
-    <t>NUCLEO DE DANCA PORTADORES DE ALEGRIA</t>
-  </si>
-  <si>
-    <t>VANIA TOLIPAN DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>26/10/2003</t>
-  </si>
-  <si>
     <t>03.840.189/0001-19</t>
   </si>
   <si>
@@ -1402,12 +1273,6 @@
     <t>25/06/2007</t>
   </si>
   <si>
-    <t>REPUBLICANOS</t>
-  </si>
-  <si>
-    <t>25/09/2007</t>
-  </si>
-  <si>
     <t>12.045.353/0001-97</t>
   </si>
   <si>
@@ -1429,9 +1294,6 @@
     <t>06.286.972/0001-70</t>
   </si>
   <si>
-    <t>CASA BELLA DE MACAE MATERIAL DE CONSTRUÇÃO LTDA-EP</t>
-  </si>
-  <si>
     <t>MICHELINE LOPES DE OLIVEIRA</t>
   </si>
   <si>
@@ -1514,6 +1376,48 @@
   </si>
   <si>
     <t>peso_filiado_politico</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO PAIS E AMIGOS DOS JUDOCAS</t>
+  </si>
+  <si>
+    <t>749.971.907-30</t>
+  </si>
+  <si>
+    <t>MANOEL FRANCISCO DA SILVA NETO</t>
+  </si>
+  <si>
+    <t>2o. VICE-PRESIDENTE</t>
+  </si>
+  <si>
+    <t>VEREADOR</t>
+  </si>
+  <si>
+    <t>AUTOLAGOS COMERCIO DE PEÇAS</t>
+  </si>
+  <si>
+    <t>COMACHARQUE MAQUINAS E EQUIP.PARA ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>CARDIM E CARDIM LTDA ME</t>
+  </si>
+  <si>
+    <t>CARMELO COMERCIO E SERVICOS LTDA ME</t>
+  </si>
+  <si>
+    <t>CASA BELLA DE MACAE MATERIAL DE CONSTRUCAO LTDA-EP</t>
+  </si>
+  <si>
+    <t>E. SOUZA E FILHOS MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>FRANCA E MARINS LTDA</t>
+  </si>
+  <si>
+    <t>IRMAOS PRATA COM. SERV. DE CONSERV. LTDA</t>
+  </si>
+  <si>
+    <t>L ALVES VIDRACARIA LTDA-ME</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2010,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2176,50 +2080,53 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -2290,9 +2197,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D1F1AA60-4E66-4255-A0F3-BBD5ED92BA23}" name="Credores_X_Filiação_Partidária3" displayName="Credores_X_Filiação_Partidária3" ref="A1:H49" tableType="queryTable" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-    <sortCondition ref="B2:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D1F1AA60-4E66-4255-A0F3-BBD5ED92BA23}" name="Credores_X_Filiação_Partidária3" displayName="Credores_X_Filiação_Partidária3" ref="A1:H43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H43" xr:uid="{0A3959B3-D1B4-45A7-B652-2798993630D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+    <sortCondition ref="B2:B43"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="3" xr3:uid="{EF72A2B4-ACAC-41C8-862F-6E80D844EB4B}" uniqueName="3" name="cnpj_empresa" queryTableFieldId="3" dataDxfId="7"/>
@@ -2309,7 +2217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2608,23 +2516,23 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="11" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2641,27 +2549,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -2682,15 +2590,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
@@ -2711,18 +2619,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>8</v>
@@ -2740,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2769,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2798,15 +2706,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>12</v>
@@ -2827,15 +2735,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>12</v>
@@ -2854,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2883,18 +2791,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F10" s="44">
         <v>0.24362818590704599</v>
@@ -2909,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2938,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2967,18 +2875,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -2996,18 +2904,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="F14" s="42">
         <v>0.64832793959007595</v>
@@ -3022,15 +2930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>12</v>
@@ -3048,18 +2956,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="44">
         <v>5.1546386438516903E-2</v>
@@ -3074,15 +2982,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>12</v>
@@ -3103,15 +3011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>12</v>
@@ -3132,18 +3040,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="45">
         <v>0.30338414905465494</v>
@@ -3158,18 +3066,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="40">
@@ -3185,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -3214,18 +3122,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="F22" s="44">
         <v>5.3862772852566493E-2</v>
@@ -3240,18 +3148,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>8</v>
@@ -3269,18 +3177,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -3298,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>25</v>
       </c>
@@ -3309,7 +3217,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -3327,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
@@ -3356,18 +3264,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="F27" s="42">
         <v>4.3149946062567401E-3</v>
@@ -3382,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
     </row>
   </sheetData>
@@ -3403,23 +3311,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D94B89C-B348-40CA-97B8-22874A14380D}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
-    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="9" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3433,30 +3341,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3477,15 +3385,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -3506,9 +3414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3532,18 +3440,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="44">
         <v>7.4642671055552764E-3</v>
@@ -3558,18 +3466,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -3587,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -3616,15 +3524,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -3645,18 +3553,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3674,7 +3582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -3703,15 +3611,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>12</v>
@@ -3730,18 +3638,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -3759,18 +3667,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>8</v>
@@ -3788,18 +3696,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>8</v>
@@ -3817,15 +3725,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -3846,18 +3754,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -3875,18 +3783,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>8</v>
@@ -3904,15 +3812,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -3933,18 +3841,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>8</v>
@@ -3962,18 +3870,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
         <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -3991,18 +3899,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>8</v>
@@ -4020,15 +3928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>12</v>
@@ -4047,18 +3955,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -4076,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -4084,7 +3992,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -4105,18 +4013,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="44">
         <v>6.6091821302944678E-2</v>
@@ -4131,18 +4039,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="43">
@@ -4158,15 +4066,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>12</v>
@@ -4187,15 +4095,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>12</v>
@@ -4216,18 +4124,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>8</v>
@@ -4245,18 +4153,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>8</v>
@@ -4289,25 +4197,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F34F53-BA3A-4D37-AA5C-382577DA0AAF}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4315,181 +4223,181 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="24">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="F5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C7" s="24">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4503,728 +4411,702 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C9" s="24">
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" t="s">
         <v>224</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="49">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B31" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="24">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="24">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>148</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E32" t="s">
         <v>149</v>
       </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" t="s">
         <v>150</v>
       </c>
-      <c r="H12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="H32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="27">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="24">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E33" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="24">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="24">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="24">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="24">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="24">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F23" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B34" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="24">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" t="s">
-        <v>247</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>248</v>
-      </c>
-      <c r="H27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="24">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="24">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="24">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="27">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>135</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{123B2B6B-AB43-457E-84FB-802A9EA04952}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
-      <sortCondition ref="B2:B34"/>
+  <autoFilter ref="A1:H32" xr:uid="{123B2B6B-AB43-457E-84FB-802A9EA04952}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H32">
+      <sortCondition ref="B2:B32"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
-    <sortCondition ref="B2:B35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
+    <sortCondition ref="B2:B34"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5232,25 +5114,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF853EC-8CE2-4B26-A9CC-36D1FEA7C10F}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5258,1308 +5140,1152 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="24">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="24">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C25" s="24">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>283</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E25" t="s">
         <v>284</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F25" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" t="s">
+        <v>336</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" s="24">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="F32" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" t="s">
+        <v>393</v>
+      </c>
+      <c r="F35" t="s">
+        <v>394</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="24">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>414</v>
+      </c>
+      <c r="E36" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" t="s">
+        <v>415</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B37" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C37" s="24">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>408</v>
+      </c>
+      <c r="E37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" t="s">
+        <v>409</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>341</v>
+      </c>
+      <c r="E38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>386</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" t="s">
         <v>389</v>
       </c>
-      <c r="E3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="24">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="24">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" t="s">
-        <v>390</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="C11" s="24">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" t="s">
-        <v>449</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="C12" s="24">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" t="s">
-        <v>324</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>359</v>
+      </c>
+      <c r="E43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" t="s">
         <v>360</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>362</v>
-      </c>
-      <c r="E13" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" t="s">
-        <v>363</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>421</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>423</v>
-      </c>
-      <c r="E15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" t="s">
-        <v>424</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>458</v>
-      </c>
-      <c r="E16" t="s">
-        <v>312</v>
-      </c>
-      <c r="F16" t="s">
-        <v>459</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" s="24">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" t="s">
-        <v>411</v>
-      </c>
-      <c r="F17" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="34">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" t="s">
-        <v>376</v>
-      </c>
-      <c r="F19" t="s">
-        <v>445</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="C44" s="35">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="24">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B45" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="E20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="C21" s="24">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>353</v>
-      </c>
-      <c r="E21" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" t="s">
-        <v>354</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="34">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="24">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>380</v>
-      </c>
-      <c r="E23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E24" t="s">
-        <v>323</v>
-      </c>
-      <c r="F24" t="s">
-        <v>324</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="35">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>357</v>
-      </c>
-      <c r="E27" t="s">
-        <v>358</v>
-      </c>
-      <c r="F27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" t="s">
-        <v>299</v>
-      </c>
-      <c r="F28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>382</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E29" t="s">
-        <v>342</v>
-      </c>
-      <c r="F29" t="s">
-        <v>385</v>
-      </c>
-      <c r="G29" t="s">
-        <v>386</v>
-      </c>
-      <c r="H29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" t="s">
-        <v>371</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F31" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="34">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="34">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="24">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>440</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C35" s="24">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>357</v>
-      </c>
-      <c r="E35" t="s">
-        <v>358</v>
-      </c>
-      <c r="F35" t="s">
-        <v>359</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>344</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="C36" s="24">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>346</v>
-      </c>
-      <c r="E36" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" t="s">
-        <v>330</v>
-      </c>
-      <c r="G36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="C37" s="24">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>401</v>
-      </c>
-      <c r="F37" t="s">
-        <v>402</v>
-      </c>
-      <c r="G37" t="s">
-        <v>403</v>
-      </c>
-      <c r="H37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="C38" s="24">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>435</v>
-      </c>
-      <c r="E38" t="s">
-        <v>436</v>
-      </c>
-      <c r="F38" t="s">
-        <v>437</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="34">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="24">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>460</v>
-      </c>
-      <c r="E40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>452</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C41" s="24">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>454</v>
-      </c>
-      <c r="E41" t="s">
-        <v>328</v>
-      </c>
-      <c r="F41" t="s">
-        <v>455</v>
-      </c>
-      <c r="G41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="24">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>372</v>
-      </c>
-      <c r="E42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" t="s">
-        <v>293</v>
-      </c>
-      <c r="G42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="24">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>311</v>
-      </c>
-      <c r="E43" t="s">
-        <v>312</v>
-      </c>
-      <c r="F43" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>429</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="C44" s="24">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>431</v>
-      </c>
-      <c r="E44" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44" t="s">
-        <v>432</v>
-      </c>
-      <c r="G44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>315</v>
-      </c>
       <c r="C45" s="24">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="E45" t="s">
-        <v>317</v>
-      </c>
-      <c r="F45" t="s">
-        <v>318</v>
-      </c>
-      <c r="G45" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>413</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="C46" s="24">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>415</v>
-      </c>
-      <c r="E46" t="s">
-        <v>312</v>
-      </c>
-      <c r="F46" t="s">
-        <v>416</v>
-      </c>
-      <c r="G46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="C47" s="24">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" t="s">
-        <v>308</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>325</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="24">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>327</v>
-      </c>
-      <c r="E48" t="s">
-        <v>328</v>
-      </c>
-      <c r="F48" t="s">
-        <v>329</v>
-      </c>
-      <c r="G48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>396</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="C49" s="24">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>398</v>
-      </c>
-      <c r="E49" t="s">
-        <v>342</v>
-      </c>
-      <c r="F49" t="s">
-        <v>399</v>
-      </c>
-      <c r="G49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B50" s="46" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" s="35">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="C51" s="24">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>465</v>
-      </c>
-      <c r="E51" t="s">
-        <v>287</v>
-      </c>
-      <c r="H51" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
